--- a/simplex/calculations.xlsx
+++ b/simplex/calculations.xlsx
@@ -1,47 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA488A9-FDF9-45E2-8EF6-D97278C71819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="22575" yWindow="7425" windowWidth="12300" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
-  <si>
-    <t>zad1</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>zad2</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>zad3</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>parallel</t>
   </si>
@@ -49,19 +35,28 @@
     <t>sequential</t>
   </si>
   <si>
-    <t>evolve</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>Total execution time[s]</t>
+  </si>
+  <si>
+    <t>speed up</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,6 +184,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,253 +428,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>1000000</v>
+      </c>
+      <c r="E2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="C3">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="D3">
+        <v>11.43</v>
+      </c>
+      <c r="E3">
+        <v>179.42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="C2">
-        <v>1.401</v>
-      </c>
-      <c r="D2">
-        <v>11.43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="C3">
-        <v>1.238</v>
-      </c>
-      <c r="D3">
-        <v>9.782</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D7">
-        <v>5.9160000000000004</v>
-      </c>
-      <c r="E7">
-        <v>58.006</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D8">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="C10">
-        <v>14.388999999999999</v>
-      </c>
-      <c r="D10">
-        <v>58.448999999999998</v>
-      </c>
-      <c r="E10">
-        <v>57.421999999999997</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C11">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E11">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="C15">
-        <v>5.8979999999999997</v>
-      </c>
-      <c r="D15">
-        <v>48.892000000000003</v>
-      </c>
-      <c r="E15">
-        <v>96.385000000000005</v>
-      </c>
-      <c r="F15">
-        <v>199.67500000000001</v>
-      </c>
-      <c r="G15">
-        <v>381.16500000000002</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="C16">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D16">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="E16">
-        <v>4.5810000000000004</v>
-      </c>
-      <c r="F16">
-        <v>9.1530000000000005</v>
-      </c>
-      <c r="G16">
-        <v>18.291</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
+      <c r="B4">
+        <v>0.621</v>
+      </c>
+      <c r="C4">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="D4">
+        <v>9.8740000000000006</v>
+      </c>
+      <c r="E4">
+        <v>155.91999999999999</v>
+      </c>
+      <c r="F4">
+        <f>B3/B4</f>
+        <v>1.1368760064412238</v>
+      </c>
+      <c r="G4">
+        <f>C3/C4</f>
+        <v>1.1556642216788915</v>
+      </c>
+      <c r="H4">
+        <f>D3/D4</f>
+        <v>1.1575855782864086</v>
+      </c>
+      <c r="I4">
+        <f>E3/E4</f>
+        <v>1.1507183170856849</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>